--- a/pred_ohlcv/54_21/2019-10-18 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 QTUM ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1034.18055797</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1465.61804203</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1348.56004203</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-498.6681420300004</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-820.5351420300004</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-753.9793420300005</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1204.138857969999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>966.2388579699995</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>366.5182579699995</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>289.7252579699995</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>109.5254579699995</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>111.6987579699994</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>357.6561579699995</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>995.2457579699994</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>978.9439579699995</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1379.96995797</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1379.96995797</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1379.96995797</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3196.486657969999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4057.60499167</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4213.04459167</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4263.80459167</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5074.56549167</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4570.116891670001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4567.116891670001</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-6438.584200540001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-6537.326900540001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-6262.18110054</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-6155.90000054</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-7258.21210054</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6830.542700540001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6825.515048460001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6825.515048460001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-8949.532148459999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-9068.462048459998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-9067.321648459998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-8473.214748459997</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-8160.675848459997</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-8013.738748459997</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1055.116248459996</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-14.82024845999638</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>427.1250515400036</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1139.872084679997</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1139.324524309997</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>704.0379756900033</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1154.610762360003</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2398.936062360003</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2585.207962360003</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2594.997487560003</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2494.897487560003</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2734.897087560003</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2836.643887560003</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3036.690687560003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>36703.10182045</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>37182.58997346</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>36857.58997346</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>38364.80317346</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>39046.12267346</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>39070.76977346</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>39221.91977346</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>40811.12571533</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>41107.24271533</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>40563.88531533</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>40545.71491533</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>35014.45511533</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>35560.25881532999</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>35624.85471533</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>35524.86711532999</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>35506.55481533</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>35662.71121533</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>35644.03251533</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>35254.03251533</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>35254.03251533</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>35433.55051533</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>35173.52631533</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>36014.93841533</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>36015.93841533</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>35995.88591533</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>35940.84181533</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>35940.84181533</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>35940.84181533</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>35950.40201533</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>35946.61651533</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>38813.38691533</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>39526.23001533</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>38441.13401533</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>38785.59891533</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>38696.84541533</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>37473.35561533</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>37410.39561533</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>37410.39561533</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>36549.34801533</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>36649.34801533</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>38584.43071533</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>38602.57401533001</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>38525.19746030001</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>38820.1854603</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>38799.6431603</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 QTUM ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1034.18055797</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1465.61804203</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1348.56004203</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-498.6681420300004</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-820.5351420300004</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-753.9793420300005</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1204.138857969999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>966.2388579699995</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>366.5182579699995</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>289.7252579699995</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>109.5254579699995</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>111.6987579699994</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>357.6561579699995</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>995.2457579699994</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>978.9439579699995</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1379.96995797</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1379.96995797</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1379.96995797</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3196.486657969999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4778.30502626</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4613.58209374</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4699.88059167</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4419.84009167</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4489.11509167</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4057.60499167</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4217.34189167</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4213.04459167</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4263.80459167</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5074.56549167</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4570.116891670001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4567.116891670001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4569.116891670001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4568.116891670001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-7291.229391670001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-7291.229391670001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-7286.166100540001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-6438.584200540001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6825.515048460001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-8949.532148459999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-9068.462048459998</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-9067.321648459998</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-8473.214748459997</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-8160.675848459997</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-8013.738748459997</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1055.116248459996</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-14.82024845999638</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>427.1250515400036</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1139.872084679997</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1139.324524309997</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>704.0379756900033</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1154.610762360003</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2398.936062360003</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2585.207962360003</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2594.997487560003</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2494.897487560003</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2734.897087560003</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2836.643887560003</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3036.690687560003</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>33491.18612149</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>32383.50972149</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>32416.52192149</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>36979.9089965</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>35489.5192174</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>38098.39272045001</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>36849.39272045001</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>35153.34102045</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>36703.10182045</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>37182.58997346</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>36857.58997346</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>38364.80317346</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>39046.12267346</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>39070.76977346</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>39221.91977346</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>40811.12571533</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>41107.24271533</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>40563.88531533</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>40545.71491533</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>35014.45511533</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>35560.25881532999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>35624.85471533</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
